--- a/excel/excelBubble.xlsx
+++ b/excel/excelBubble.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d534c5fa73f723c/Documents/TERM FOLDERS/Grad Classes/02-datavis-7ways/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d534c5fa73f723c/Documents/TERM FOLDERS/Grad Classes/02-datavis-7ways/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D6BF276-D300-4F46-BDDD-A31455A6A55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{4D6BF276-D300-4F46-BDDD-A31455A6A55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70052F1A-FDFC-4E3B-A1D7-0E23236384C8}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986"/>
+    <workbookView xWindow="420" yWindow="1047" windowWidth="14593" windowHeight="12753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excelBubble" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2020,7 +2020,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="527221599"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="5"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000"/>
         <c:minorUnit val="500"/>
@@ -2135,7 +2135,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="580338143"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1300"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="5"/>
@@ -3147,11 +3147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="P19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/excel/excelBubble.xlsx
+++ b/excel/excelBubble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d534c5fa73f723c/Documents/TERM FOLDERS/Grad Classes/02-datavis-7ways/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{4D6BF276-D300-4F46-BDDD-A31455A6A55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70052F1A-FDFC-4E3B-A1D7-0E23236384C8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{4D6BF276-D300-4F46-BDDD-A31455A6A55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2584A667-5B7A-4D87-BA3E-C01C15319CBB}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1047" windowWidth="14593" windowHeight="12753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2152,6 +2152,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -3150,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" topLeftCell="M23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
